--- a/A/附件/result2.xlsx
+++ b/A/附件/result2.xlsx
@@ -516,7 +516,7 @@
         <v>1799.879596896554</v>
       </c>
       <c r="J2" t="n">
-        <v>4.594071578979491</v>
+        <v>4.621801757812499</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +550,7 @@
         <v>1296.128509347828</v>
       </c>
       <c r="J3" t="n">
-        <v>3.956004238128664</v>
+        <v>3.946816539764406</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         <v>697.4592364116986</v>
       </c>
       <c r="J4" t="n">
-        <v>3.101585865020752</v>
+        <v>3.157153034210189</v>
       </c>
     </row>
     <row r="5">
